--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\school\ThesisProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\school\ThesisProject\Commented-out-Code-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F5EE98-B0B8-4B18-B73A-C506EC77D0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D59EC9-9CA8-4C91-B6D6-24369EF7D606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC619B5A-A64A-49E4-B73F-1181EFA2771A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FC619B5A-A64A-49E4-B73F-1181EFA2771A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$91</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="114">
   <si>
     <t>8cc</t>
   </si>
@@ -764,8 +765,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3400,4 +3401,965 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E23D1D2-767F-4F4F-857F-25B85473D4F4}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="A2:I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9615</v>
+      </c>
+      <c r="E2" s="1">
+        <v>712</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <f>(E2)/(D2)</f>
+        <v>7.4050962038481535E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <f>F2/F28*100</f>
+        <v>3.4071550255536626E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1">
+        <v>148</v>
+      </c>
+      <c r="D3" s="1">
+        <v>89971</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9979</v>
+      </c>
+      <c r="F3" s="1">
+        <v>134</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H27" si="0">(E3)/(D3)</f>
+        <v>0.11091351657756388</v>
+      </c>
+      <c r="I3" s="1">
+        <f>F3/F28*100</f>
+        <v>4.565587734241908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1">
+        <v>134</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9243</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2809</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30390565833603811</v>
+      </c>
+      <c r="I4" s="1">
+        <f>F4/F28*100</f>
+        <v>3.4071550255536626E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1">
+        <v>120472</v>
+      </c>
+      <c r="E5" s="1">
+        <v>38013</v>
+      </c>
+      <c r="F5" s="1">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31553389999335946</v>
+      </c>
+      <c r="I5" s="1">
+        <f>F5/F28*100</f>
+        <v>1.6013628620102214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2498435</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2509104</v>
+      </c>
+      <c r="F6" s="1">
+        <v>217</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0042702731910176</v>
+      </c>
+      <c r="I6" s="1">
+        <f>F6/F28*100</f>
+        <v>7.393526405451448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1">
+        <v>154</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1119730</v>
+      </c>
+      <c r="E7" s="1">
+        <v>450027</v>
+      </c>
+      <c r="F7" s="1">
+        <v>85</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40190670965321995</v>
+      </c>
+      <c r="I7" s="1">
+        <f>F7/F28*100</f>
+        <v>2.8960817717206133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5768</v>
+      </c>
+      <c r="E8" s="1">
+        <v>576</v>
+      </c>
+      <c r="F8" s="1">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9861303744798888E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <f>F8/F28*100</f>
+        <v>1.0562180579216354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>15245</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4521</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29655624795014757</v>
+      </c>
+      <c r="I9" s="1">
+        <f>F9/F28*100</f>
+        <v>0.30664395229982966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>36262</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3345</v>
+      </c>
+      <c r="F10" s="1">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2245325685290383E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <f>F10/F28*100</f>
+        <v>0.44293015332197616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>446</v>
+      </c>
+      <c r="E11" s="1">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0358744394618833E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <f>F11/F28*100</f>
+        <v>3.4071550255536626E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1">
+        <v>501</v>
+      </c>
+      <c r="D12" s="1">
+        <v>285918</v>
+      </c>
+      <c r="E12" s="1">
+        <v>84631</v>
+      </c>
+      <c r="F12" s="1">
+        <f>915+334</f>
+        <v>1249</v>
+      </c>
+      <c r="G12" s="1">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29599745381542958</v>
+      </c>
+      <c r="I12" s="1">
+        <f>F12/F28*100</f>
+        <v>42.555366269165248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10948</v>
+      </c>
+      <c r="E13" s="1">
+        <v>350</v>
+      </c>
+      <c r="F13" s="1">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1969309462915603E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <f>F13/F28*100</f>
+        <v>0.91993185689948886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="1">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1">
+        <v>857752</v>
+      </c>
+      <c r="E14" s="1">
+        <v>636880</v>
+      </c>
+      <c r="F14" s="1">
+        <v>63</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74249899737919589</v>
+      </c>
+      <c r="I14" s="1">
+        <f>F14/F28*100</f>
+        <v>2.1465076660988078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1">
+        <v>82</v>
+      </c>
+      <c r="D15" s="1">
+        <v>92036</v>
+      </c>
+      <c r="E15" s="1">
+        <v>28712</v>
+      </c>
+      <c r="F15" s="1">
+        <f>197+188</f>
+        <v>385</v>
+      </c>
+      <c r="G15" s="1">
+        <v>94</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31196488330653221</v>
+      </c>
+      <c r="I15" s="1">
+        <f>F15/F28*100</f>
+        <v>13.1175468483816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>51833</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10893</v>
+      </c>
+      <c r="F16" s="1">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21015569231956477</v>
+      </c>
+      <c r="I16" s="1">
+        <f>F16/F28*100</f>
+        <v>0.81771720613287913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45564</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4585</v>
+      </c>
+      <c r="F17" s="1">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10062768852602932</v>
+      </c>
+      <c r="I17" s="1">
+        <f>F17/F28*100</f>
+        <v>1.090289608177172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3453</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7376194613379669E-3</v>
+      </c>
+      <c r="I18" s="1">
+        <f>F18/F28*100</f>
+        <v>0.37478705281090291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="1">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1">
+        <v>798229</v>
+      </c>
+      <c r="E19" s="1">
+        <v>240724</v>
+      </c>
+      <c r="F19" s="1">
+        <f>78+67+43</f>
+        <v>188</v>
+      </c>
+      <c r="G19" s="1">
+        <f>16+26</f>
+        <v>42</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30157260635732352</v>
+      </c>
+      <c r="I19" s="1">
+        <f>F19/F28*100</f>
+        <v>6.4054514480408855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1">
+        <v>747</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6049345</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1295150</v>
+      </c>
+      <c r="F20" s="1">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21409755932253824</v>
+      </c>
+      <c r="I20" s="1">
+        <f>F20/F28*100</f>
+        <v>0.37478705281090291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="1">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1">
+        <f>13576+2430</f>
+        <v>16006</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1337</v>
+      </c>
+      <c r="F21" s="1">
+        <v>42</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3531175809071601E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <f>F21/F28*100</f>
+        <v>1.4310051107325383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21478</v>
+      </c>
+      <c r="E22" s="1">
+        <v>478</v>
+      </c>
+      <c r="F22" s="1">
+        <v>59</v>
+      </c>
+      <c r="G22" s="1">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2255331036409347E-2</v>
+      </c>
+      <c r="I22" s="1">
+        <f>F22/F28*100</f>
+        <v>2.0102214650766612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="1">
+        <v>109</v>
+      </c>
+      <c r="D23" s="1">
+        <v>187682</v>
+      </c>
+      <c r="E23" s="1">
+        <v>30768</v>
+      </c>
+      <c r="F23" s="1">
+        <v>42</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16393687194296735</v>
+      </c>
+      <c r="I23" s="1">
+        <f>F23/F28*100</f>
+        <v>1.4310051107325383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3910</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1206</v>
+      </c>
+      <c r="F24" s="1">
+        <v>53</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30843989769820973</v>
+      </c>
+      <c r="I24" s="1">
+        <f>F24/F28*100</f>
+        <v>1.8057921635434411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="1">
+        <v>99</v>
+      </c>
+      <c r="D25" s="1">
+        <v>376343</v>
+      </c>
+      <c r="E25" s="1">
+        <v>72562</v>
+      </c>
+      <c r="F25" s="1">
+        <f>98+65</f>
+        <v>163</v>
+      </c>
+      <c r="G25" s="1">
+        <v>11</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19280815638925131</v>
+      </c>
+      <c r="I25" s="1">
+        <f>F25/F28*100</f>
+        <v>5.5536626916524705</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1">
+        <v>158</v>
+      </c>
+      <c r="D26" s="1">
+        <v>69880</v>
+      </c>
+      <c r="E26" s="1">
+        <v>11952</v>
+      </c>
+      <c r="F26" s="1">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17103606182026332</v>
+      </c>
+      <c r="I26" s="1">
+        <f>F26/F28*100</f>
+        <v>0.47700170357751281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2002448</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1125133</v>
+      </c>
+      <c r="F27" s="1">
+        <v>33</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56187876039727369</v>
+      </c>
+      <c r="I27" s="1">
+        <f>F27/F28*100</f>
+        <v>1.1243611584327087</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="1">
+        <f>SUM(C2:C27)</f>
+        <v>2606</v>
+      </c>
+      <c r="D28" s="1">
+        <f>SUM(D2:D27)</f>
+        <v>14778012</v>
+      </c>
+      <c r="E28" s="1">
+        <f>SUM(E2:E27)</f>
+        <v>6564471</v>
+      </c>
+      <c r="F28" s="1">
+        <f>SUM(F2:F27)</f>
+        <v>2935</v>
+      </c>
+      <c r="G28" s="1">
+        <f>SUM(G2:G27)</f>
+        <v>303</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1">
+        <f>SUM(I2:I27)</f>
+        <v>100.00000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="1">
+        <f>AVERAGE(C2:C27)</f>
+        <v>100.23076923076923</v>
+      </c>
+      <c r="D29" s="1">
+        <f>AVERAGE(D2:D27)</f>
+        <v>568385.07692307688</v>
+      </c>
+      <c r="E29" s="1">
+        <f>AVERAGE(E2:E27)</f>
+        <v>252479.65384615384</v>
+      </c>
+      <c r="F29" s="1">
+        <f>AVERAGE(F2:F27)</f>
+        <v>112.88461538461539</v>
+      </c>
+      <c r="G29" s="1">
+        <f>AVERAGE(G2:G27)</f>
+        <v>11.653846153846153</v>
+      </c>
+      <c r="H29" s="1">
+        <f>AVERAGE(H2:H27)</f>
+        <v>0.24823502717726345</v>
+      </c>
+      <c r="I29" s="1">
+        <f>AVERAGE(I2:I27)</f>
+        <v>3.8461538461538471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="1">
+        <f>MEDIAN(C2:C27)</f>
+        <v>51</v>
+      </c>
+      <c r="D30" s="1">
+        <f>MEDIAN(D2:D27)</f>
+        <v>60856.5</v>
+      </c>
+      <c r="E30" s="1">
+        <f>MEDIAN(E2:E27)</f>
+        <v>10436</v>
+      </c>
+      <c r="F30" s="1">
+        <f>MEDIAN(F2:F27)</f>
+        <v>37.5</v>
+      </c>
+      <c r="G30" s="1">
+        <f>MEDIAN(G2:G27)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <f>MEDIAN(H2:H27)</f>
+        <v>0.20148192435440804</v>
+      </c>
+      <c r="I30" s="1">
+        <f>MEDIAN(I2:I27)</f>
+        <v>1.2776831345826234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\school\ThesisProject\Commented-out-Code-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D59EC9-9CA8-4C91-B6D6-24369EF7D606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA70876-EB50-4D3E-956E-B2049EC05F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FC619B5A-A64A-49E4-B73F-1181EFA2771A}"/>
+    <workbookView xWindow="3615" yWindow="345" windowWidth="25530" windowHeight="15600" xr2:uid="{FC619B5A-A64A-49E4-B73F-1181EFA2771A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,17 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="141">
   <si>
     <t>8cc</t>
   </si>
   <si>
-    <t>30 Days of Code</t>
-  </si>
-  <si>
-    <t>Abseil cpp</t>
-  </si>
-  <si>
     <t>aleth</t>
   </si>
   <si>
@@ -57,138 +51,39 @@
     <t>asio</t>
   </si>
   <si>
-    <t>atom gpp compiler</t>
-  </si>
-  <si>
     <t>aws sdk cpp</t>
   </si>
   <si>
-    <t>BansheeEngine</t>
-  </si>
-  <si>
-    <t>BridJ</t>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>captcha</t>
-  </si>
-  <si>
-    <t>cbc</t>
-  </si>
-  <si>
     <t>cdt</t>
   </si>
   <si>
-    <t>cgeo</t>
-  </si>
-  <si>
-    <t>civetweb</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>codelite</t>
-  </si>
-  <si>
     <t>C Plus Plus</t>
   </si>
   <si>
-    <t>cpp sublime snippet</t>
-  </si>
-  <si>
-    <t>DeepLearning</t>
-  </si>
-  <si>
-    <t>distcc</t>
-  </si>
-  <si>
-    <t>Duckuino</t>
-  </si>
-  <si>
     <t>DynamicExpresso</t>
   </si>
   <si>
-    <t>EasyHttp</t>
-  </si>
-  <si>
     <t>EnsageSharp</t>
   </si>
   <si>
-    <t>EnyimMemcached</t>
-  </si>
-  <si>
-    <t>FASTER</t>
-  </si>
-  <si>
     <t>faster than c</t>
   </si>
   <si>
-    <t>fast xml parser</t>
-  </si>
-  <si>
-    <t>Fleck</t>
-  </si>
-  <si>
     <t>folly</t>
   </si>
   <si>
-    <t>glog</t>
-  </si>
-  <si>
-    <t>HackerRank</t>
-  </si>
-  <si>
-    <t>hiredis</t>
-  </si>
-  <si>
-    <t>http parser</t>
-  </si>
-  <si>
-    <t>HttpTwo</t>
-  </si>
-  <si>
     <t>j2c</t>
   </si>
   <si>
     <t>j2objc</t>
   </si>
   <si>
-    <t>javacpp</t>
-  </si>
-  <si>
-    <t>javacpp presets</t>
-  </si>
-  <si>
-    <t>json c</t>
-  </si>
-  <si>
-    <t>jsoncpp</t>
-  </si>
-  <si>
-    <t>LeetCode</t>
-  </si>
-  <si>
-    <t>leetcode</t>
-  </si>
-  <si>
-    <t>libco</t>
-  </si>
-  <si>
-    <t>libconfig</t>
-  </si>
-  <si>
     <t>libigl</t>
   </si>
   <si>
-    <t>librdkafka</t>
-  </si>
-  <si>
-    <t>lightning</t>
-  </si>
-  <si>
     <t>markdowndeep</t>
   </si>
   <si>
@@ -204,33 +99,12 @@
     <t>mono</t>
   </si>
   <si>
-    <t>msgpack c</t>
-  </si>
-  <si>
     <t>nativejson benchmark</t>
   </si>
   <si>
-    <t>NiL.JS</t>
-  </si>
-  <si>
-    <t>node pg native</t>
-  </si>
-  <si>
-    <t>node pre gyp</t>
-  </si>
-  <si>
-    <t>NodObjC</t>
-  </si>
-  <si>
-    <t>nuklear</t>
-  </si>
-  <si>
     <t>oclint</t>
   </si>
   <si>
-    <t>Openwrt NetKeeper</t>
-  </si>
-  <si>
     <t>osrm backend</t>
   </si>
   <si>
@@ -240,33 +114,9 @@
     <t>QuantLib</t>
   </si>
   <si>
-    <t>rtags</t>
-  </si>
-  <si>
-    <t>ServiceStack.Redis</t>
-  </si>
-  <si>
-    <t>SharpSCADA</t>
-  </si>
-  <si>
-    <t>sonar objective c</t>
-  </si>
-  <si>
     <t>stb</t>
   </si>
   <si>
-    <t>stratisBitcoinFullNode</t>
-  </si>
-  <si>
-    <t>UnityCsReference</t>
-  </si>
-  <si>
-    <t>v7</t>
-  </si>
-  <si>
-    <t>websocketpp</t>
-  </si>
-  <si>
     <t>XobotOS</t>
   </si>
   <si>
@@ -312,9 +162,6 @@
     <t>C#/C/C++</t>
   </si>
   <si>
-    <t>gdbgui</t>
-  </si>
-  <si>
     <t>Java/C/C++</t>
   </si>
   <si>
@@ -379,6 +226,240 @@
   </si>
   <si>
     <t>Percentage of Corpus</t>
+  </si>
+  <si>
+    <t>rui314/8cc</t>
+  </si>
+  <si>
+    <t>Xeoneux/30 Days of Code</t>
+  </si>
+  <si>
+    <t>abseil/Abseil cpp</t>
+  </si>
+  <si>
+    <t>ethereum/aleth</t>
+  </si>
+  <si>
+    <t>keon/algorithms</t>
+  </si>
+  <si>
+    <t>chriskohlhoff/asio</t>
+  </si>
+  <si>
+    <t>kriscross07/atom gpp compiler</t>
+  </si>
+  <si>
+    <t>aws/aws sdk cpp</t>
+  </si>
+  <si>
+    <t>daseyb/BansheeEngine</t>
+  </si>
+  <si>
+    <t>nativelibs4java/BridJ</t>
+  </si>
+  <si>
+    <t>rswier/c4</t>
+  </si>
+  <si>
+    <t>mewebstudio/captcha</t>
+  </si>
+  <si>
+    <t>aamine/cbc</t>
+  </si>
+  <si>
+    <t>eclipse-cdt/cdt</t>
+  </si>
+  <si>
+    <t>cgeo/cgeo</t>
+  </si>
+  <si>
+    <t>civetweb/civetweb</t>
+  </si>
+  <si>
+    <t>MyDearGreatTeacher/C</t>
+  </si>
+  <si>
+    <t>eranif/codelite</t>
+  </si>
+  <si>
+    <t>TheAlgorithms/C Plus Plus</t>
+  </si>
+  <si>
+    <t>Rapptz/cpp sublime snippet</t>
+  </si>
+  <si>
+    <t>yusugomori/DeepLearning</t>
+  </si>
+  <si>
+    <t>distcc/distcc</t>
+  </si>
+  <si>
+    <t>Dukweeno/Duckuino</t>
+  </si>
+  <si>
+    <t>davideicardi/DynamicExpresso</t>
+  </si>
+  <si>
+    <t>EasyHttp/EasyHttp</t>
+  </si>
+  <si>
+    <t>JumpAttacker/EnsageSharp</t>
+  </si>
+  <si>
+    <t>enyim/EnyimMemcached</t>
+  </si>
+  <si>
+    <t>microsoft/FASTER</t>
+  </si>
+  <si>
+    <t>felixge/faster than c</t>
+  </si>
+  <si>
+    <t>NaturalIntelligence/fast xml parser</t>
+  </si>
+  <si>
+    <t>statianzo/Fleck</t>
+  </si>
+  <si>
+    <t>facebook/folly</t>
+  </si>
+  <si>
+    <t>cs01/gdbgui</t>
+  </si>
+  <si>
+    <t>google/glog</t>
+  </si>
+  <si>
+    <t>RyanFehr/HackerRank</t>
+  </si>
+  <si>
+    <t>redis/hiredis</t>
+  </si>
+  <si>
+    <t>nodejs/http parser</t>
+  </si>
+  <si>
+    <t>Redth/HttpTwo</t>
+  </si>
+  <si>
+    <t>arnetheduck/j2c</t>
+  </si>
+  <si>
+    <t>google/j2objc</t>
+  </si>
+  <si>
+    <t>bytedeco/javacpp</t>
+  </si>
+  <si>
+    <t>Bytedeco/javacpp presets</t>
+  </si>
+  <si>
+    <t>json c/json c</t>
+  </si>
+  <si>
+    <t>open source parsers/jsoncpp</t>
+  </si>
+  <si>
+    <t>fishercoder1534/LeetCode</t>
+  </si>
+  <si>
+    <t>haoel/leetcode</t>
+  </si>
+  <si>
+    <t>Tencent/libco</t>
+  </si>
+  <si>
+    <t>hyperrealm/libconfig</t>
+  </si>
+  <si>
+    <t>libigl/libigl</t>
+  </si>
+  <si>
+    <t>edenhill/librdkafka</t>
+  </si>
+  <si>
+    <t>ElementsProject/lightning</t>
+  </si>
+  <si>
+    <t>toptensoftware/markdowndeep</t>
+  </si>
+  <si>
+    <t>neuecc/MessagePack Csharp</t>
+  </si>
+  <si>
+    <t>Fedjmike/mini c</t>
+  </si>
+  <si>
+    <t>ArduPilot/MissionPlanner</t>
+  </si>
+  <si>
+    <t>mono/mono</t>
+  </si>
+  <si>
+    <t>msgpack/msgpack c</t>
+  </si>
+  <si>
+    <t>miloyip/nativejson benchmark</t>
+  </si>
+  <si>
+    <t>nilproject/NiL.JS</t>
+  </si>
+  <si>
+    <t>brianc/node pg native</t>
+  </si>
+  <si>
+    <t>mapbox/node pre gyp</t>
+  </si>
+  <si>
+    <t>TooTallNate/NodObjC</t>
+  </si>
+  <si>
+    <t>vurtun/nuklear</t>
+  </si>
+  <si>
+    <t>oclint/oclint</t>
+  </si>
+  <si>
+    <t>miao1007/Openwrt NetKeeper</t>
+  </si>
+  <si>
+    <t>Project OSRM/osrm backend</t>
+  </si>
+  <si>
+    <t>nayuki/QR Code generator</t>
+  </si>
+  <si>
+    <t>Iballabio/QuantLib</t>
+  </si>
+  <si>
+    <t>Andersbakken/rtags</t>
+  </si>
+  <si>
+    <t>ServiceStack/ServiceStack.Redis</t>
+  </si>
+  <si>
+    <t>GavinYellow/SharpSCADA</t>
+  </si>
+  <si>
+    <t>octo technology/sonar objective c</t>
+  </si>
+  <si>
+    <t>nothings/stb</t>
+  </si>
+  <si>
+    <t>stratisproject/stratisBitcoinFullNode</t>
+  </si>
+  <si>
+    <t>Unity Technologies/UnityCsReference</t>
+  </si>
+  <si>
+    <t>cesanta/v7</t>
+  </si>
+  <si>
+    <t>zaphoyd/websocketpp</t>
+  </si>
+  <si>
+    <t>xamarin/XobotOS</t>
   </si>
 </sst>
 </file>
@@ -765,8 +846,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:I91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I83"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,39 +865,39 @@
   <sheetData>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <v>9</v>
@@ -844,10 +925,10 @@
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3">
         <v>40</v>
@@ -874,10 +955,10 @@
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3">
         <v>62</v>
@@ -904,10 +985,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3">
         <v>148</v>
@@ -935,10 +1016,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3">
         <v>134</v>
@@ -966,10 +1047,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3">
         <v>28</v>
@@ -997,10 +1078,10 @@
     </row>
     <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
@@ -1027,10 +1108,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3">
         <v>57</v>
@@ -1058,10 +1139,10 @@
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -1088,10 +1169,10 @@
     </row>
     <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3">
         <v>10</v>
@@ -1118,10 +1199,10 @@
     </row>
     <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3">
         <v>5</v>
@@ -1148,10 +1229,10 @@
     </row>
     <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3">
         <v>28</v>
@@ -1178,10 +1259,10 @@
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1208,10 +1289,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3">
         <v>154</v>
@@ -1239,10 +1320,10 @@
     </row>
     <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3">
         <v>101</v>
@@ -1269,10 +1350,10 @@
     </row>
     <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3">
         <v>160</v>
@@ -1299,10 +1380,10 @@
     </row>
     <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -1329,10 +1410,10 @@
     </row>
     <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3">
         <v>64</v>
@@ -1359,10 +1440,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3">
         <v>100</v>
@@ -1390,10 +1471,10 @@
     </row>
     <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -1420,10 +1501,10 @@
     </row>
     <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1450,10 +1531,10 @@
     </row>
     <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3">
         <v>45</v>
@@ -1480,10 +1561,10 @@
     </row>
     <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3">
         <v>5</v>
@@ -1510,10 +1591,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3">
         <v>15</v>
@@ -1541,10 +1622,10 @@
     </row>
     <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3">
         <v>12</v>
@@ -1571,10 +1652,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C28" s="3">
         <v>8</v>
@@ -1602,10 +1683,10 @@
     </row>
     <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3">
         <v>9</v>
@@ -1632,10 +1713,10 @@
     </row>
     <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C30" s="3">
         <v>32</v>
@@ -1662,10 +1743,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
@@ -1693,10 +1774,10 @@
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>33</v>
@@ -1723,10 +1804,10 @@
     </row>
     <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C33" s="3">
         <v>24</v>
@@ -1753,10 +1834,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C34" s="3">
         <v>501</v>
@@ -1785,10 +1866,10 @@
     </row>
     <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C35" s="3">
         <v>27</v>
@@ -1815,10 +1896,10 @@
     </row>
     <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C36" s="3">
         <v>76</v>
@@ -1845,10 +1926,10 @@
     </row>
     <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C37" s="3">
         <v>9</v>
@@ -1875,10 +1956,10 @@
     </row>
     <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C38" s="3">
         <v>99</v>
@@ -1905,10 +1986,10 @@
     </row>
     <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="C39" s="3">
         <v>77</v>
@@ -1935,10 +2016,10 @@
     </row>
     <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
@@ -1965,10 +2046,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -1996,10 +2077,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="C42" s="3">
         <v>66</v>
@@ -2027,10 +2108,10 @@
     </row>
     <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C43" s="3">
         <v>33</v>
@@ -2057,10 +2138,10 @@
     </row>
     <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C44" s="3">
         <v>57</v>
@@ -2087,10 +2168,10 @@
     </row>
     <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C45" s="3">
         <v>94</v>
@@ -2117,10 +2198,10 @@
     </row>
     <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C46" s="3">
         <v>146</v>
@@ -2147,10 +2228,10 @@
     </row>
     <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C47" s="3">
         <v>38</v>
@@ -2177,10 +2258,10 @@
     </row>
     <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C48" s="3">
         <v>28</v>
@@ -2207,10 +2288,10 @@
     </row>
     <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C49" s="3">
         <v>12</v>
@@ -2237,10 +2318,10 @@
     </row>
     <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C50" s="3">
         <v>27</v>
@@ -2267,10 +2348,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C51" s="3">
         <v>82</v>
@@ -2299,10 +2380,10 @@
     </row>
     <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C52" s="3">
         <v>163</v>
@@ -2329,10 +2410,10 @@
     </row>
     <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C53" s="3">
         <v>129</v>
@@ -2359,10 +2440,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C54" s="3">
         <v>6</v>
@@ -2390,10 +2471,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C55" s="3">
         <v>45</v>
@@ -2421,10 +2502,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -2452,10 +2533,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C57" s="3">
         <v>71</v>
@@ -2485,10 +2566,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C58" s="3">
         <v>747</v>
@@ -2516,10 +2597,10 @@
     </row>
     <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C59" s="3">
         <v>113</v>
@@ -2546,10 +2627,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C60" s="3">
         <v>32</v>
@@ -2578,10 +2659,10 @@
     </row>
     <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C61" s="3">
         <v>8</v>
@@ -2608,10 +2689,10 @@
     </row>
     <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C62" s="3">
         <v>10</v>
@@ -2638,10 +2719,10 @@
     </row>
     <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C63" s="3">
         <v>47</v>
@@ -2668,10 +2749,10 @@
     </row>
     <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C64" s="3">
         <v>11</v>
@@ -2698,10 +2779,10 @@
     </row>
     <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C65" s="3">
         <v>100</v>
@@ -2728,10 +2809,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C66" s="3">
         <v>29</v>
@@ -2759,10 +2840,10 @@
     </row>
     <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C67" s="3">
         <v>15</v>
@@ -2789,10 +2870,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C68" s="3">
         <v>109</v>
@@ -2820,10 +2901,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C69" s="3">
         <v>2</v>
@@ -2851,10 +2932,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C70" s="3">
         <v>99</v>
@@ -2883,10 +2964,10 @@
     </row>
     <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C71" s="3">
         <v>110</v>
@@ -2913,10 +2994,10 @@
     </row>
     <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C72" s="3">
         <v>61</v>
@@ -2943,10 +3024,10 @@
     </row>
     <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C73" s="3">
         <v>4</v>
@@ -2973,10 +3054,10 @@
     </row>
     <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C74" s="3">
         <v>8</v>
@@ -3003,10 +3084,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C75" s="3">
         <v>158</v>
@@ -3034,10 +3115,10 @@
     </row>
     <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C76" s="3">
         <v>62</v>
@@ -3064,10 +3145,10 @@
     </row>
     <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C77" s="3">
         <v>150</v>
@@ -3094,10 +3175,10 @@
     </row>
     <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C78" s="3">
         <v>17</v>
@@ -3124,10 +3205,10 @@
     </row>
     <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C79" s="3">
         <v>41</v>
@@ -3154,10 +3235,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -3185,7 +3266,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="4">
@@ -3216,7 +3297,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="4">
@@ -3250,7 +3331,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="4">
@@ -3284,7 +3365,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="F86">
         <f>COUNTIF(F3:F80, "&gt;0")</f>
@@ -3301,10 +3382,10 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="G87">
         <f>SUMIF(F3:F80,"&gt;0",C3:C80)</f>
@@ -3313,7 +3394,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B88">
         <f>SUM(COUNTIF(B3:B80, "C"), COUNTIF(B3:B80, "C++/C/Java"), COUNTIF(B3:B80, "C++/C"), COUNTIF(B3:B80, "Java/C++/C"), COUNTIF(B3:B80, "C/Java/C++"), COUNTIF(B3:B80, "Java/C/C++"), COUNTIF(B3:B80, "Java/C++/C#/C"), COUNTIF(B3:B80, "C/C++/Java"), COUNTIF(B3:B80, "C/C++"), COUNTIF(B3:B80, "C#/C/C++"))</f>
@@ -3326,7 +3407,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B89">
         <f>SUM(COUNTIF(B3:B80, "C++"), COUNTIF(B3:B80, "C++/C/Java"), COUNTIF(B3:B80, "C#/Java/C++"), COUNTIF(B3:B80, "C++/C"), COUNTIF(B3:B80, "Java/C++/C"), COUNTIF(B3:B80, "C/Java/C++"), COUNTIF(B3:B80, "Java/C/C++"), COUNTIF(B3:B80, "Java/C#/C++"), COUNTIF(B3:B80, "Java/C++/C#/C"), COUNTIF(B3:B80, "C/C++/Java"), COUNTIF(B3:B80, "C/C++"), COUNTIF(B3:B80, "C#/C/C++"), COUNTIF(B3:B80, "C#/C++"), COUNTIF(B3:B80, "C++/C#"), COUNTIF(B3:B80, "C#/Java/C++"))</f>
@@ -3339,7 +3420,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="B90">
         <f>SUM(COUNTIF(B3:B80, "C#"), COUNTIF(B3:B80, "Java/C++/C#/C"), COUNTIF(B3:B80, "C#/C/C++"), COUNTIF(B3:B80, "C#/C++"), COUNTIF(B3:B80, "C++/C#"), COUNTIF(B3:B80, "C#/Java/C++"), COUNTIF(B3:B80, "Java/C#"), COUNTIF(B3:B80, "Java/C#/C++"), COUNTIF(B3:B80, "C#/Java/C++"))</f>
@@ -3352,7 +3433,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="B91">
         <f>SUM(COUNTIF(B3:B80, "Java"), COUNTIF(B3:B80, "C++/C/Java"), COUNTIF(B3:B80, "C#/Java/C++"), COUNTIF(B3:B80, "Java/C++/C"), COUNTIF(B3:B80, "C/Java/C++"), COUNTIF(B3:B80, "Java/C/C++"), COUNTIF(B3:B80, "Java/C#/C++"), COUNTIF(B3:B80, "Java/C++/C#/C"), COUNTIF(B3:B80, "C/C++/Java"),  COUNTIF(B3:B80, "C#/Java/C++"))</f>
@@ -3407,7 +3488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E23D1D2-767F-4F4F-857F-25B85473D4F4}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="A2:I30"/>
     </sheetView>
   </sheetViews>
@@ -3424,31 +3505,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3456,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>9</v>
@@ -3484,10 +3565,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>148</v>
@@ -3515,10 +3596,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>134</v>
@@ -3546,10 +3627,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>28</v>
@@ -3577,10 +3658,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>57</v>
@@ -3608,10 +3689,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>154</v>
@@ -3639,10 +3720,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1">
         <v>100</v>
@@ -3670,10 +3751,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1">
         <v>15</v>
@@ -3701,10 +3782,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
@@ -3732,10 +3813,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -3763,10 +3844,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
         <v>501</v>
@@ -3795,10 +3876,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -3826,10 +3907,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1">
         <v>66</v>
@@ -3857,10 +3938,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
         <v>82</v>
@@ -3889,10 +3970,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1">
         <v>6</v>
@@ -3920,10 +4001,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1">
         <v>45</v>
@@ -3951,10 +4032,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -3982,10 +4063,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1">
         <v>71</v>
@@ -4015,10 +4096,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1">
         <v>747</v>
@@ -4046,10 +4127,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1">
         <v>32</v>
@@ -4078,10 +4159,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1">
         <v>29</v>
@@ -4109,10 +4190,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1">
         <v>109</v>
@@ -4140,10 +4221,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -4171,10 +4252,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1">
         <v>99</v>
@@ -4203,10 +4284,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1">
         <v>158</v>
@@ -4234,10 +4315,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -4265,7 +4346,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1">
         <f>SUM(C2:C27)</f>
@@ -4295,67 +4376,67 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1">
-        <f>AVERAGE(C2:C27)</f>
+        <f t="shared" ref="C29:I29" si="1">AVERAGE(C2:C27)</f>
         <v>100.23076923076923</v>
       </c>
       <c r="D29" s="1">
-        <f>AVERAGE(D2:D27)</f>
+        <f t="shared" si="1"/>
         <v>568385.07692307688</v>
       </c>
       <c r="E29" s="1">
-        <f>AVERAGE(E2:E27)</f>
+        <f t="shared" si="1"/>
         <v>252479.65384615384</v>
       </c>
       <c r="F29" s="1">
-        <f>AVERAGE(F2:F27)</f>
+        <f t="shared" si="1"/>
         <v>112.88461538461539</v>
       </c>
       <c r="G29" s="1">
-        <f>AVERAGE(G2:G27)</f>
+        <f t="shared" si="1"/>
         <v>11.653846153846153</v>
       </c>
       <c r="H29" s="1">
-        <f>AVERAGE(H2:H27)</f>
+        <f t="shared" si="1"/>
         <v>0.24823502717726345</v>
       </c>
       <c r="I29" s="1">
-        <f>AVERAGE(I2:I27)</f>
+        <f t="shared" si="1"/>
         <v>3.8461538461538471</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1">
-        <f>MEDIAN(C2:C27)</f>
+        <f t="shared" ref="C30:I30" si="2">MEDIAN(C2:C27)</f>
         <v>51</v>
       </c>
       <c r="D30" s="1">
-        <f>MEDIAN(D2:D27)</f>
+        <f t="shared" si="2"/>
         <v>60856.5</v>
       </c>
       <c r="E30" s="1">
-        <f>MEDIAN(E2:E27)</f>
+        <f t="shared" si="2"/>
         <v>10436</v>
       </c>
       <c r="F30" s="1">
-        <f>MEDIAN(F2:F27)</f>
+        <f t="shared" si="2"/>
         <v>37.5</v>
       </c>
       <c r="G30" s="1">
-        <f>MEDIAN(G2:G27)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <f>MEDIAN(H2:H27)</f>
+        <f t="shared" si="2"/>
         <v>0.20148192435440804</v>
       </c>
       <c r="I30" s="1">
-        <f>MEDIAN(I2:I27)</f>
+        <f t="shared" si="2"/>
         <v>1.2776831345826234</v>
       </c>
     </row>
